--- a/myanmarentreprogrammer/002 Articles/I am going to Crate Blogging Platform in Java/03 Development/Users_program_structure.xlsx
+++ b/myanmarentreprogrammer/002 Articles/I am going to Crate Blogging Platform in Java/03 Development/Users_program_structure.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="41">
   <si>
     <t>userHeader.html</t>
   </si>
@@ -104,13 +104,46 @@
   </si>
   <si>
     <t>postTutorial.html</t>
+  </si>
+  <si>
+    <t>check content_type and respond</t>
+  </si>
+  <si>
+    <t>select</t>
+  </si>
+  <si>
+    <t>admin_name</t>
+  </si>
+  <si>
+    <t>admin_image_url</t>
+  </si>
+  <si>
+    <t>created_date</t>
+  </si>
+  <si>
+    <t>post_title_img_url</t>
+  </si>
+  <si>
+    <t>COALESCE(post_title_mmr, post_title_eng)</t>
+  </si>
+  <si>
+    <t>content_type</t>
+  </si>
+  <si>
+    <t>post_content</t>
+  </si>
+  <si>
+    <t>about_admin</t>
+  </si>
+  <si>
+    <t>**refer latest post 7</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -121,6 +154,14 @@
     <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -183,13 +224,14 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -593,9 +635,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B6:AJ34"/>
+  <dimension ref="B6:AJ42"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="N33" sqref="N33"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
@@ -767,11 +811,99 @@
       </c>
       <c r="C31" s="3"/>
     </row>
-    <row r="34" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:36" x14ac:dyDescent="0.25">
+      <c r="E32" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="N32" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="AG32" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="AH32" s="1"/>
+      <c r="AI32" s="1"/>
+      <c r="AJ32" s="1"/>
+    </row>
+    <row r="33" spans="2:36" x14ac:dyDescent="0.25">
+      <c r="AG33" s="1"/>
+      <c r="AH33" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="AI33" s="1"/>
+      <c r="AJ33" s="1"/>
+    </row>
+    <row r="34" spans="2:36" x14ac:dyDescent="0.25">
       <c r="B34" s="2" t="s">
         <v>29</v>
       </c>
       <c r="C34" s="3"/>
+      <c r="AG34" s="1"/>
+      <c r="AH34" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="AI34" s="1"/>
+      <c r="AJ34" s="1"/>
+    </row>
+    <row r="35" spans="2:36" x14ac:dyDescent="0.25">
+      <c r="AG35" s="1"/>
+      <c r="AH35" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="AI35" s="1"/>
+      <c r="AJ35" s="1"/>
+    </row>
+    <row r="36" spans="2:36" x14ac:dyDescent="0.25">
+      <c r="AG36" s="1"/>
+      <c r="AH36" s="1"/>
+      <c r="AI36" s="1"/>
+      <c r="AJ36" s="1"/>
+    </row>
+    <row r="37" spans="2:36" x14ac:dyDescent="0.25">
+      <c r="AG37" s="1"/>
+      <c r="AH37" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="AI37" s="1"/>
+      <c r="AJ37" s="1"/>
+    </row>
+    <row r="38" spans="2:36" x14ac:dyDescent="0.25">
+      <c r="AG38" s="1"/>
+      <c r="AH38" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="AI38" s="1"/>
+      <c r="AJ38" s="1"/>
+    </row>
+    <row r="39" spans="2:36" x14ac:dyDescent="0.25">
+      <c r="AG39" s="1"/>
+      <c r="AH39" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="AI39" s="1"/>
+      <c r="AJ39" s="1"/>
+    </row>
+    <row r="40" spans="2:36" x14ac:dyDescent="0.25">
+      <c r="AG40" s="1"/>
+      <c r="AH40" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="AI40" s="1"/>
+      <c r="AJ40" s="1"/>
+    </row>
+    <row r="41" spans="2:36" x14ac:dyDescent="0.25">
+      <c r="AG41" s="1"/>
+      <c r="AH41" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="AI41" s="1"/>
+      <c r="AJ41" s="1"/>
+    </row>
+    <row r="42" spans="2:36" x14ac:dyDescent="0.25">
+      <c r="AG42" s="1"/>
+      <c r="AH42" s="1"/>
+      <c r="AI42" s="1"/>
+      <c r="AJ42" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/myanmarentreprogrammer/002 Articles/I am going to Crate Blogging Platform in Java/03 Development/Users_program_structure.xlsx
+++ b/myanmarentreprogrammer/002 Articles/I am going to Crate Blogging Platform in Java/03 Development/Users_program_structure.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="7380"/>
@@ -391,7 +391,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -426,7 +426,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -637,8 +637,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B6:AJ42"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="N33" sqref="N33"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="O19" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="AH40" sqref="AH40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
